--- a/biology/Botanique/Saxifrage_stolonifère/Saxifrage_stolonifère.xlsx
+++ b/biology/Botanique/Saxifrage_stolonifère/Saxifrage_stolonifère.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Saxifrage_stolonif%C3%A8re</t>
+          <t>Saxifrage_stolonifère</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Saxifraga stolonifera
 La Saxifrage stolonifère (Saxifraga stolonifera  Curtis, 1774) est une espèce de plante herbacée vivace de la famille des Saxifragacées.
-Cette saxifrage originaire d'Asie est une plante rampante qui fait de 10 à 20cm de haut, dont l'inflorescence porte de petites fleurs zygomorphes qui fleurissent lors de la transition entre le printemps et l'été. Comme les fraisiers, elle produit des stolons porteurs de plantules à leur extrémité, lui permettant ainsi de se propager facilement. Elle a été introduite en France où elle est cultivée comme plante ornementale et s'est naturalisée dans des régions de l'est comme le Var ou l'Alsace[4].
+Cette saxifrage originaire d'Asie est une plante rampante qui fait de 10 à 20cm de haut, dont l'inflorescence porte de petites fleurs zygomorphes qui fleurissent lors de la transition entre le printemps et l'été. Comme les fraisiers, elle produit des stolons porteurs de plantules à leur extrémité, lui permettant ainsi de se propager facilement. Elle a été introduite en France où elle est cultivée comme plante ornementale et s'est naturalisée dans des régions de l'est comme le Var ou l'Alsace.
 </t>
         </is>
       </c>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Saxifrage_stolonif%C3%A8re</t>
+          <t>Saxifrage_stolonifère</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,11 +525,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Nom scientifique valide : Saxifraga stolonifera Curtis, 1774[4]
-Nom vulgaire (vulgarisation scientifique) recommandé ou typique en français : Saxifrage stolonifère[5],[6],[7]
-Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : saxifrage araignée[7],[6], saxifrage sarmenteux[6] ou sarmenteuse[7],[8], saxifrage de Chine[7],[8], barbe de vieillard[7] ou barbe de juif[7],[8].</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Nom scientifique valide : Saxifraga stolonifera Curtis, 1774
+Nom vulgaire (vulgarisation scientifique) recommandé ou typique en français : Saxifrage stolonifère
+Autres noms vulgaires ou noms vernaculaires (langage courant) pouvant désigner éventuellement d'autres espèces : saxifrage araignée saxifrage sarmenteux ou sarmenteuse saxifrage de Chine barbe de vieillard ou barbe de juif,.</t>
         </is>
       </c>
     </row>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Saxifrage_stolonif%C3%A8re</t>
+          <t>Saxifrage_stolonifère</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 			Planche botanique de 1790.
@@ -565,7 +581,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Saxifrage_stolonif%C3%A8re</t>
+          <t>Saxifrage_stolonifère</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -583,12 +599,49 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>En classification phylogénétique APG III (2009)[9], comme c'était déjà le cas en classification classique de Cronquist (1981)[10], cette espèce est assignée au genre Saxifraga, dans la famille des Saxifragaceae.
-L'espèce a été décrite en 1774 par le botaniste britannique William Curtis (1746-1799). L'épithète spécifique stolonifera signifie « qui a des stolons »[11].
-Liste des variétés
-Selon Tropicos                                           (31 mai 2018)[12] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En classification phylogénétique APG III (2009), comme c'était déjà le cas en classification classique de Cronquist (1981), cette espèce est assignée au genre Saxifraga, dans la famille des Saxifragaceae.
+L'espèce a été décrite en 1774 par le botaniste britannique William Curtis (1746-1799). L'épithète spécifique stolonifera signifie « qui a des stolons ».
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Saxifrage_stolonifère</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Saxifrage_stolonif%C3%A8re</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Liste des variétés</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon Tropicos                                           (31 mai 2018) :
 variété Saxifraga stolonifera var. immaculata (Diels) Hand.-Mazz.</t>
         </is>
       </c>
